--- a/Сайты+что добавил/Список сайтов часть первая/Список сайтов с прайс-листами/ООО Интеллект сервис гот вручн из doc/Прайс для сайта/8lpkVHC8oa.xlsx
+++ b/Сайты+что добавил/Список сайтов часть первая/Список сайтов с прайс-листами/ООО Интеллект сервис гот вручн из doc/Прайс для сайта/8lpkVHC8oa.xlsx
@@ -458,8 +458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,7 +469,7 @@
     <col min="3" max="3" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="94.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -483,7 +483,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -497,7 +497,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -511,7 +511,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -525,7 +525,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -539,7 +539,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -553,7 +553,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
